--- a/19poeppmann/Ausbildungskalender2020_V2.xlsx
+++ b/19poeppmann/Ausbildungskalender2020_V2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>bis:</t>
   </si>
@@ -100,12 +100,33 @@
     <t>Informatik Software-Engeniering: 
  Wasserfall-, V-, Spiralmodell, Agile, Struktogramm, PAP, Pseudocode</t>
   </si>
+  <si>
+    <t>Februrar</t>
+  </si>
+  <si>
+    <t>März</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +134,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -130,11 +164,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -150,6 +298,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +639,7 @@
   <dimension ref="A1:K296"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:K110"/>
+      <selection activeCell="A215" sqref="A215:K217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,246 +648,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="22">
         <v>22</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="22">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="23">
         <v>43857</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="23">
         <v>43863</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="A9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="19">
         <v>23</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="19">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="20">
         <v>43864</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="20">
         <v>43870</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -724,81 +931,81 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="19">
         <v>24</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="19">
         <v>7</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="20">
         <v>43871</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="20">
         <v>43877</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -840,81 +1047,81 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="19">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="19">
         <v>8</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="20">
         <v>43878</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="20">
         <v>43884</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -979,46 +1186,46 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
         <v>26</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="6">
         <v>9</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="9">
         <v>43885</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="9">
         <v>43891</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1028,146 +1235,148 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="A42" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="19">
         <v>27</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="19">
         <v>10</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="20">
         <v>43892</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="20">
         <v>43898</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
@@ -1209,81 +1418,81 @@
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="19">
         <v>28</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="19">
         <v>11</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="20">
         <v>43899</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="20">
         <v>43905</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3" t="s">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -1325,81 +1534,81 @@
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="19">
         <v>29</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="19">
         <v>12</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="20">
         <v>43906</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="20">
         <v>43912</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="3" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -1415,130 +1624,130 @@
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="19">
         <v>30</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="19">
         <v>13</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="20">
         <v>43913</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="20">
         <v>43919</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="3" t="s">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
@@ -1580,46 +1789,46 @@
       <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="6">
         <v>31</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="6">
         <v>14</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="9">
         <v>43920</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="9">
         <v>43926</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="14"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="17"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -1629,33 +1838,35 @@
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="14"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="17"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+      <c r="A83" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -1694,79 +1905,79 @@
       <c r="K85" s="3"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="19">
         <v>32</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="19">
         <v>15</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="20">
         <v>43927</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="20">
         <v>43933</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -1808,79 +2019,79 @@
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="19">
         <v>33</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="19">
         <v>16</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="20">
         <v>43934</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="20">
         <v>43940</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
@@ -1896,128 +2107,128 @@
       <c r="K99" s="3"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="A103" s="19">
         <v>34</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="19">
         <v>17</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="20">
         <v>43941</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="20">
         <v>43947</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -2059,46 +2270,46 @@
       <c r="K110" s="3"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="A111" s="6">
         <v>35</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="6">
         <v>18</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="9">
         <v>43948</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="9">
         <v>43954</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="14"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="17"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -2108,148 +2319,150 @@
       <c r="K113" s="3"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="3" t="s">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="14"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="17"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
+      <c r="A116" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="A119" s="19">
         <v>36</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="19">
         <v>19</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="20">
         <v>43955</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="20">
         <v>43961</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="3" t="s">
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
@@ -2291,81 +2504,81 @@
       <c r="K126" s="3"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+      <c r="A127" s="19">
         <v>37</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="19">
         <v>20</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="20">
         <v>43962</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="20">
         <v>43968</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="3" t="s">
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -2381,130 +2594,130 @@
       <c r="K132" s="3"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="A136" s="19">
         <v>38</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="19">
         <v>21</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="20">
         <v>43969</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="20">
         <v>43975</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="3" t="s">
+      <c r="A139" s="19"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
@@ -2546,79 +2759,79 @@
       <c r="K143" s="3"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="A144" s="19">
         <v>39</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="19">
         <v>22</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="20">
         <v>43976</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="20">
         <v>43982</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
@@ -2660,46 +2873,46 @@
       <c r="K151" s="3"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="A152" s="6">
         <v>40</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="6">
         <v>23</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="9">
         <v>43983</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="9">
         <v>43989</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="14"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="17"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -2709,144 +2922,146 @@
       <c r="K154" s="3"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="14"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="17"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
+      <c r="A157" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="24"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="24"/>
+      <c r="I159" s="24"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="24"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="A160" s="19">
         <v>41</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="19">
         <v>24</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="20">
         <v>43990</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="20">
         <v>43996</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
@@ -2862,128 +3077,128 @@
       <c r="K165" s="3"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+      <c r="A169" s="19">
         <v>42</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="19">
         <v>25</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="20">
         <v>43997</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D169" s="20">
         <v>44003</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="19"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="19"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="19"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
@@ -3025,79 +3240,79 @@
       <c r="K176" s="3"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+      <c r="A177" s="19">
         <v>43</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="19">
         <v>26</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="20">
         <v>44004</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="20">
         <v>44010</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="19"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="19"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="19"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="19"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
@@ -3139,46 +3354,46 @@
       <c r="K184" s="3"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+      <c r="A185" s="6">
         <v>44</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="6">
         <v>27</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="9">
         <v>44011</v>
       </c>
-      <c r="D185" s="4">
+      <c r="D185" s="9">
         <v>44017</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="14"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="16"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="17"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -3188,144 +3403,146 @@
       <c r="K187" s="3"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+      <c r="K188" s="14"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
+      <c r="I189" s="16"/>
+      <c r="J189" s="16"/>
+      <c r="K189" s="17"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
+      <c r="A190" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B190" s="24"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="24"/>
+      <c r="I190" s="24"/>
+      <c r="J190" s="24"/>
+      <c r="K190" s="24"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
+      <c r="A191" s="24"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="24"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="24"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
+      <c r="A192" s="24"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="24"/>
+      <c r="I192" s="24"/>
+      <c r="J192" s="24"/>
+      <c r="K192" s="24"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+      <c r="A193" s="19">
         <v>45</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="19">
         <v>28</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="20">
         <v>44018</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="20">
         <v>44024</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="19"/>
+      <c r="K195" s="19"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="19"/>
+      <c r="I196" s="19"/>
+      <c r="J196" s="19"/>
+      <c r="K196" s="19"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="19"/>
+      <c r="I197" s="19"/>
+      <c r="J197" s="19"/>
+      <c r="K197" s="19"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
@@ -3341,128 +3558,128 @@
       <c r="K198" s="3"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="19"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="19"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="19"/>
+      <c r="I200" s="19"/>
+      <c r="J200" s="19"/>
+      <c r="K200" s="19"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
+      <c r="A201" s="19"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="19"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="19"/>
+      <c r="K201" s="19"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+      <c r="A202" s="19">
         <v>46</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="19">
         <v>29</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="20">
         <v>44025</v>
       </c>
-      <c r="D202" s="4">
+      <c r="D202" s="20">
         <v>44031</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="19"/>
+      <c r="K202" s="19"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
+      <c r="A203" s="19"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="19"/>
+      <c r="K203" s="19"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
+      <c r="A204" s="19"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="19"/>
+      <c r="K204" s="19"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
+      <c r="A205" s="19"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="19"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="19"/>
+      <c r="K205" s="19"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="19"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="19"/>
+      <c r="K206" s="19"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
@@ -3504,79 +3721,79 @@
       <c r="K209" s="3"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+      <c r="A210" s="19">
         <v>47</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="19">
         <v>30</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="20">
         <v>44032</v>
       </c>
-      <c r="D210" s="4">
+      <c r="D210" s="20">
         <v>44038</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
+      <c r="F210" s="19"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="19"/>
+      <c r="K210" s="19"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
+      <c r="A211" s="19"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
+      <c r="K211" s="19"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
+      <c r="A212" s="19"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="19"/>
+      <c r="K212" s="19"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
+      <c r="A213" s="19"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="19"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="19"/>
+      <c r="K213" s="19"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="19"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="19"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
@@ -3618,46 +3835,46 @@
       <c r="K217" s="3"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+      <c r="A218" s="6">
         <v>48</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="6">
         <v>31</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218" s="9">
         <v>44039</v>
       </c>
-      <c r="D218" s="4">
+      <c r="D218" s="9">
         <v>44045</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="E218" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="13"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13"/>
+      <c r="K218" s="14"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="16"/>
+      <c r="G219" s="16"/>
+      <c r="H219" s="16"/>
+      <c r="I219" s="16"/>
+      <c r="J219" s="16"/>
+      <c r="K219" s="17"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
+      <c r="A220" s="7"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -3667,33 +3884,35 @@
       <c r="K220" s="3"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
+      <c r="A221" s="7"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="13"/>
+      <c r="G221" s="13"/>
+      <c r="H221" s="13"/>
+      <c r="I221" s="13"/>
+      <c r="J221" s="13"/>
+      <c r="K221" s="14"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="16"/>
+      <c r="J222" s="16"/>
+      <c r="K222" s="17"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
+      <c r="A223" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -4589,17 +4808,259 @@
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A256:K264"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="E47:K47"/>
+    <mergeCell ref="E55:K55"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="A165:K165"/>
+    <mergeCell ref="A198:K198"/>
+    <mergeCell ref="A231:K231"/>
+    <mergeCell ref="E63:K63"/>
+    <mergeCell ref="A182:K184"/>
+    <mergeCell ref="A190:K192"/>
+    <mergeCell ref="A207:K209"/>
+    <mergeCell ref="A215:K217"/>
+    <mergeCell ref="A223:K225"/>
+    <mergeCell ref="A240:K242"/>
+    <mergeCell ref="E187:K187"/>
+    <mergeCell ref="E195:K195"/>
+    <mergeCell ref="E212:K212"/>
+    <mergeCell ref="A108:K110"/>
+    <mergeCell ref="A116:K118"/>
+    <mergeCell ref="A124:K126"/>
+    <mergeCell ref="A141:K143"/>
+    <mergeCell ref="A149:K151"/>
+    <mergeCell ref="A157:K159"/>
+    <mergeCell ref="E113:K113"/>
+    <mergeCell ref="E121:K121"/>
+    <mergeCell ref="E129:K129"/>
+    <mergeCell ref="E138:K138"/>
+    <mergeCell ref="E163:K164"/>
+    <mergeCell ref="E169:K170"/>
+    <mergeCell ref="E172:K173"/>
+    <mergeCell ref="E177:K178"/>
+    <mergeCell ref="E180:K181"/>
+    <mergeCell ref="A174:K176"/>
+    <mergeCell ref="E162:K162"/>
+    <mergeCell ref="E171:K171"/>
+    <mergeCell ref="E179:K179"/>
+    <mergeCell ref="E136:K137"/>
+    <mergeCell ref="E139:K140"/>
+    <mergeCell ref="E144:K145"/>
+    <mergeCell ref="E251:K252"/>
+    <mergeCell ref="E254:K255"/>
+    <mergeCell ref="A248:K250"/>
+    <mergeCell ref="E237:K237"/>
+    <mergeCell ref="E245:K245"/>
+    <mergeCell ref="E253:K253"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="B251:B255"/>
+    <mergeCell ref="C251:C255"/>
+    <mergeCell ref="D251:D255"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="D235:D239"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="C243:C247"/>
+    <mergeCell ref="D243:D247"/>
+    <mergeCell ref="E235:K236"/>
+    <mergeCell ref="E111:K112"/>
+    <mergeCell ref="E114:K115"/>
+    <mergeCell ref="E119:K120"/>
+    <mergeCell ref="E122:K123"/>
+    <mergeCell ref="E127:K128"/>
+    <mergeCell ref="E130:K131"/>
+    <mergeCell ref="E238:K239"/>
+    <mergeCell ref="E243:K244"/>
+    <mergeCell ref="E246:K247"/>
+    <mergeCell ref="E210:K211"/>
+    <mergeCell ref="E213:K214"/>
+    <mergeCell ref="E218:K219"/>
+    <mergeCell ref="E221:K222"/>
+    <mergeCell ref="E226:K227"/>
+    <mergeCell ref="E229:K230"/>
+    <mergeCell ref="E220:K220"/>
+    <mergeCell ref="E228:K228"/>
+    <mergeCell ref="E185:K186"/>
+    <mergeCell ref="E188:K189"/>
+    <mergeCell ref="E193:K194"/>
+    <mergeCell ref="E196:K197"/>
+    <mergeCell ref="E202:K203"/>
+    <mergeCell ref="E205:K206"/>
+    <mergeCell ref="E160:K161"/>
+    <mergeCell ref="E86:K87"/>
+    <mergeCell ref="E89:K90"/>
+    <mergeCell ref="E94:K95"/>
+    <mergeCell ref="E97:K98"/>
+    <mergeCell ref="E103:K104"/>
+    <mergeCell ref="E106:K107"/>
+    <mergeCell ref="A91:K93"/>
+    <mergeCell ref="E88:K88"/>
+    <mergeCell ref="E96:K96"/>
+    <mergeCell ref="E105:K105"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:K102"/>
+    <mergeCell ref="E70:K71"/>
+    <mergeCell ref="E73:K74"/>
+    <mergeCell ref="E78:K79"/>
+    <mergeCell ref="E81:K82"/>
+    <mergeCell ref="E72:K72"/>
+    <mergeCell ref="E80:K80"/>
+    <mergeCell ref="E4:K5"/>
+    <mergeCell ref="E7:K8"/>
+    <mergeCell ref="E12:K13"/>
+    <mergeCell ref="E15:K16"/>
+    <mergeCell ref="E20:K21"/>
+    <mergeCell ref="E67:K69"/>
+    <mergeCell ref="E37:K38"/>
+    <mergeCell ref="E40:K41"/>
+    <mergeCell ref="A9:K11"/>
+    <mergeCell ref="A17:K19"/>
+    <mergeCell ref="A25:K27"/>
+    <mergeCell ref="A42:K44"/>
+    <mergeCell ref="A50:K52"/>
+    <mergeCell ref="A58:K60"/>
+    <mergeCell ref="A75:K77"/>
+    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="B226:B230"/>
+    <mergeCell ref="C226:C230"/>
+    <mergeCell ref="D226:D230"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="E232:K234"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="C210:C214"/>
+    <mergeCell ref="D210:D214"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="B218:B222"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="D218:D222"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="E199:K201"/>
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="B202:B206"/>
+    <mergeCell ref="C202:C206"/>
+    <mergeCell ref="D202:D206"/>
+    <mergeCell ref="A185:A189"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="C185:C189"/>
+    <mergeCell ref="D185:D189"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="C193:C197"/>
+    <mergeCell ref="D193:D197"/>
+    <mergeCell ref="E204:K204"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="B169:B173"/>
+    <mergeCell ref="C169:C173"/>
+    <mergeCell ref="D169:D173"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="B177:B181"/>
+    <mergeCell ref="C177:C181"/>
+    <mergeCell ref="D177:D181"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="D160:D164"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="E166:K168"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="E147:K148"/>
+    <mergeCell ref="E152:K153"/>
+    <mergeCell ref="E155:K156"/>
+    <mergeCell ref="E146:K146"/>
+    <mergeCell ref="E154:K154"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:K135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="D136:D140"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="D111:D115"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A83:K85"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E53:K54"/>
+    <mergeCell ref="E56:K57"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:K46"/>
+    <mergeCell ref="E48:K49"/>
+    <mergeCell ref="E61:K62"/>
+    <mergeCell ref="E64:K65"/>
     <mergeCell ref="E1:K3"/>
     <mergeCell ref="E34:K36"/>
     <mergeCell ref="E23:K24"/>
@@ -4624,265 +5085,24 @@
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="E53:K54"/>
-    <mergeCell ref="E56:K57"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:K46"/>
-    <mergeCell ref="E48:K49"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="D111:D115"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="E133:K135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="D136:D140"/>
-    <mergeCell ref="E166:K168"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="B169:B173"/>
-    <mergeCell ref="C169:C173"/>
-    <mergeCell ref="D169:D173"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="B177:B181"/>
-    <mergeCell ref="C177:C181"/>
-    <mergeCell ref="D177:D181"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="C160:C164"/>
-    <mergeCell ref="D160:D164"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="E199:K201"/>
-    <mergeCell ref="A202:A206"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="C202:C206"/>
-    <mergeCell ref="D202:D206"/>
-    <mergeCell ref="A185:A189"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="C185:C189"/>
-    <mergeCell ref="D185:D189"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="C193:C197"/>
-    <mergeCell ref="D193:D197"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="C210:C214"/>
-    <mergeCell ref="D210:D214"/>
-    <mergeCell ref="A218:A222"/>
-    <mergeCell ref="B218:B222"/>
-    <mergeCell ref="C218:C222"/>
-    <mergeCell ref="D218:D222"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="A226:A230"/>
-    <mergeCell ref="B226:B230"/>
-    <mergeCell ref="C226:C230"/>
-    <mergeCell ref="D226:D230"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="D232:D234"/>
-    <mergeCell ref="E232:K234"/>
-    <mergeCell ref="E61:K62"/>
-    <mergeCell ref="E64:K65"/>
-    <mergeCell ref="E70:K71"/>
-    <mergeCell ref="E73:K74"/>
-    <mergeCell ref="E78:K79"/>
-    <mergeCell ref="E81:K82"/>
-    <mergeCell ref="E72:K72"/>
-    <mergeCell ref="E80:K80"/>
-    <mergeCell ref="E4:K5"/>
-    <mergeCell ref="E7:K8"/>
-    <mergeCell ref="E12:K13"/>
-    <mergeCell ref="E15:K16"/>
-    <mergeCell ref="E20:K21"/>
-    <mergeCell ref="E67:K69"/>
-    <mergeCell ref="E37:K38"/>
-    <mergeCell ref="E40:K41"/>
-    <mergeCell ref="E86:K87"/>
-    <mergeCell ref="E89:K90"/>
-    <mergeCell ref="E94:K95"/>
-    <mergeCell ref="E97:K98"/>
-    <mergeCell ref="E103:K104"/>
-    <mergeCell ref="E106:K107"/>
-    <mergeCell ref="A91:K93"/>
-    <mergeCell ref="E88:K88"/>
-    <mergeCell ref="E96:K96"/>
-    <mergeCell ref="E105:K105"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:K102"/>
-    <mergeCell ref="E147:K148"/>
-    <mergeCell ref="E152:K153"/>
-    <mergeCell ref="E155:K156"/>
-    <mergeCell ref="E146:K146"/>
-    <mergeCell ref="E154:K154"/>
-    <mergeCell ref="E111:K112"/>
-    <mergeCell ref="E114:K115"/>
-    <mergeCell ref="E119:K120"/>
-    <mergeCell ref="E122:K123"/>
-    <mergeCell ref="E127:K128"/>
-    <mergeCell ref="E130:K131"/>
-    <mergeCell ref="E238:K239"/>
-    <mergeCell ref="E243:K244"/>
-    <mergeCell ref="E246:K247"/>
-    <mergeCell ref="E251:K252"/>
-    <mergeCell ref="E254:K255"/>
-    <mergeCell ref="A248:K250"/>
-    <mergeCell ref="E237:K237"/>
-    <mergeCell ref="E245:K245"/>
-    <mergeCell ref="E253:K253"/>
-    <mergeCell ref="A251:A255"/>
-    <mergeCell ref="B251:B255"/>
-    <mergeCell ref="C251:C255"/>
-    <mergeCell ref="D251:D255"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="C235:C239"/>
-    <mergeCell ref="D235:D239"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="C243:C247"/>
-    <mergeCell ref="D243:D247"/>
-    <mergeCell ref="A9:K11"/>
-    <mergeCell ref="A17:K19"/>
-    <mergeCell ref="A25:K27"/>
-    <mergeCell ref="A42:K44"/>
-    <mergeCell ref="A50:K52"/>
-    <mergeCell ref="A58:K60"/>
-    <mergeCell ref="A75:K77"/>
-    <mergeCell ref="A83:K85"/>
-    <mergeCell ref="E235:K236"/>
-    <mergeCell ref="E210:K211"/>
-    <mergeCell ref="E213:K214"/>
-    <mergeCell ref="E218:K219"/>
-    <mergeCell ref="E221:K222"/>
-    <mergeCell ref="E226:K227"/>
-    <mergeCell ref="E229:K230"/>
-    <mergeCell ref="E220:K220"/>
-    <mergeCell ref="E228:K228"/>
-    <mergeCell ref="E185:K186"/>
-    <mergeCell ref="E188:K189"/>
-    <mergeCell ref="E193:K194"/>
-    <mergeCell ref="E196:K197"/>
-    <mergeCell ref="E202:K203"/>
-    <mergeCell ref="E205:K206"/>
-    <mergeCell ref="E160:K161"/>
-    <mergeCell ref="E204:K204"/>
-    <mergeCell ref="E212:K212"/>
-    <mergeCell ref="A108:K110"/>
-    <mergeCell ref="A116:K118"/>
-    <mergeCell ref="A124:K126"/>
-    <mergeCell ref="A141:K143"/>
-    <mergeCell ref="A149:K151"/>
-    <mergeCell ref="A157:K159"/>
-    <mergeCell ref="E113:K113"/>
-    <mergeCell ref="E121:K121"/>
-    <mergeCell ref="E129:K129"/>
-    <mergeCell ref="E138:K138"/>
-    <mergeCell ref="E163:K164"/>
-    <mergeCell ref="E169:K170"/>
-    <mergeCell ref="E172:K173"/>
-    <mergeCell ref="E177:K178"/>
-    <mergeCell ref="E180:K181"/>
-    <mergeCell ref="A174:K176"/>
-    <mergeCell ref="E162:K162"/>
-    <mergeCell ref="E171:K171"/>
-    <mergeCell ref="E179:K179"/>
-    <mergeCell ref="E136:K137"/>
-    <mergeCell ref="E139:K140"/>
-    <mergeCell ref="E144:K145"/>
-    <mergeCell ref="A256:K264"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="E47:K47"/>
-    <mergeCell ref="E55:K55"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="A165:K165"/>
-    <mergeCell ref="A198:K198"/>
-    <mergeCell ref="A231:K231"/>
-    <mergeCell ref="E63:K63"/>
-    <mergeCell ref="A182:K184"/>
-    <mergeCell ref="A190:K192"/>
-    <mergeCell ref="A207:K209"/>
-    <mergeCell ref="A215:K217"/>
-    <mergeCell ref="A223:K225"/>
-    <mergeCell ref="A240:K242"/>
-    <mergeCell ref="E187:K187"/>
-    <mergeCell ref="E195:K195"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;18Ausbildungskalender FIAN 19&amp;RStand Januar 2020</oddHeader>
+    <oddHeader>&amp;C&amp;18Ausbildungskalender FIAN 19</oddHeader>
+    <oddFooter>&amp;R&amp;8Stand Januar 2020</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/19poeppmann/Ausbildungskalender2020_V2.xlsx
+++ b/19poeppmann/Ausbildungskalender2020_V2.xlsx
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -293,11 +293,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,43 +344,10 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,7 +633,7 @@
   <dimension ref="A1:K296"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215:K217"/>
+      <selection activeCell="A17" sqref="A17:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,248 +642,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="14">
         <v>22</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="14">
         <v>5</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>43857</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>43863</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="4">
         <v>23</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="13">
         <v>43864</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="13">
         <v>43870</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -931,81 +925,81 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="4">
         <v>24</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="4">
         <v>7</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="13">
         <v>43871</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="13">
         <v>43877</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1047,81 +1041,81 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="4">
         <v>8</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="13">
         <v>43878</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="13">
         <v>43884</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1186,46 +1180,46 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="15">
         <v>26</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="15">
         <v>9</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="18">
         <v>43885</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="18">
         <v>43891</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1235,148 +1229,148 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="4">
         <v>27</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="4">
         <v>10</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="13">
         <v>43892</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="13">
         <v>43898</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
@@ -1418,81 +1412,81 @@
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="A53" s="4">
         <v>28</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="4">
         <v>11</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="13">
         <v>43899</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="13">
         <v>43905</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="19" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -1534,81 +1528,81 @@
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
+      <c r="A61" s="4">
         <v>29</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="4">
         <v>12</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="13">
         <v>43906</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="13">
         <v>43912</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="19" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -1624,130 +1618,130 @@
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
+      <c r="A70" s="4">
         <v>30</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="4">
         <v>13</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="13">
         <v>43913</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="13">
         <v>43919</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
@@ -1789,46 +1783,46 @@
       <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+      <c r="A78" s="15">
         <v>31</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="15">
         <v>14</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="18">
         <v>43920</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="18">
         <v>43926</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="14"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="8"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="17"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="11"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -1838,33 +1832,33 @@
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
       <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="14"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="8"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="17"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="11"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B83" s="3"/>
@@ -1905,79 +1899,79 @@
       <c r="K85" s="3"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="19">
+      <c r="A86" s="4">
         <v>32</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B86" s="4">
         <v>15</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="13">
         <v>43927</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D86" s="13">
         <v>43933</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -2019,79 +2013,79 @@
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="19">
+      <c r="A94" s="4">
         <v>33</v>
       </c>
-      <c r="B94" s="19">
+      <c r="B94" s="4">
         <v>16</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="13">
         <v>43934</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="13">
         <v>43940</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
@@ -2107,128 +2101,128 @@
       <c r="K99" s="3"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="19">
+      <c r="A103" s="4">
         <v>34</v>
       </c>
-      <c r="B103" s="19">
+      <c r="B103" s="4">
         <v>17</v>
       </c>
-      <c r="C103" s="20">
+      <c r="C103" s="13">
         <v>43941</v>
       </c>
-      <c r="D103" s="20">
+      <c r="D103" s="13">
         <v>43947</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -2270,46 +2264,46 @@
       <c r="K110" s="3"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
+      <c r="A111" s="15">
         <v>35</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="15">
         <v>18</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="18">
         <v>43948</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="18">
         <v>43954</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="14"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="8"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="17"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="11"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -2319,150 +2313,150 @@
       <c r="K113" s="3"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
       <c r="E114" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="14"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="8"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="17"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="11"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="24" t="s">
+      <c r="A116" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24"/>
-      <c r="K118" s="24"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="19">
+      <c r="A119" s="4">
         <v>36</v>
       </c>
-      <c r="B119" s="19">
+      <c r="B119" s="4">
         <v>19</v>
       </c>
-      <c r="C119" s="20">
+      <c r="C119" s="13">
         <v>43955</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D119" s="13">
         <v>43961</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="E119" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="19" t="s">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
@@ -2504,81 +2498,81 @@
       <c r="K126" s="3"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="19">
+      <c r="A127" s="4">
         <v>37</v>
       </c>
-      <c r="B127" s="19">
+      <c r="B127" s="4">
         <v>20</v>
       </c>
-      <c r="C127" s="20">
+      <c r="C127" s="13">
         <v>43962</v>
       </c>
-      <c r="D127" s="20">
+      <c r="D127" s="13">
         <v>43968</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="19" t="s">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -2594,130 +2588,130 @@
       <c r="K132" s="3"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D133" s="19" t="s">
+      <c r="D133" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E133" s="19" t="s">
+      <c r="E133" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="19">
+      <c r="A136" s="4">
         <v>38</v>
       </c>
-      <c r="B136" s="19">
+      <c r="B136" s="4">
         <v>21</v>
       </c>
-      <c r="C136" s="20">
+      <c r="C136" s="13">
         <v>43969</v>
       </c>
-      <c r="D136" s="20">
+      <c r="D136" s="13">
         <v>43975</v>
       </c>
-      <c r="E136" s="19" t="s">
+      <c r="E136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="19"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="19"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="19"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="19" t="s">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="19"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
@@ -2759,79 +2753,79 @@
       <c r="K143" s="3"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="19">
+      <c r="A144" s="4">
         <v>39</v>
       </c>
-      <c r="B144" s="19">
+      <c r="B144" s="4">
         <v>22</v>
       </c>
-      <c r="C144" s="20">
+      <c r="C144" s="13">
         <v>43976</v>
       </c>
-      <c r="D144" s="20">
+      <c r="D144" s="13">
         <v>43982</v>
       </c>
-      <c r="E144" s="19" t="s">
+      <c r="E144" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="19"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="19"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="19"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
@@ -2873,46 +2867,46 @@
       <c r="K151" s="3"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="6">
+      <c r="A152" s="15">
         <v>40</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="15">
         <v>23</v>
       </c>
-      <c r="C152" s="9">
+      <c r="C152" s="18">
         <v>43983</v>
       </c>
-      <c r="D152" s="9">
+      <c r="D152" s="18">
         <v>43989</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="14"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="8"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="16"/>
-      <c r="J153" s="16"/>
-      <c r="K153" s="17"/>
+      <c r="A153" s="16"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="11"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -2922,146 +2916,146 @@
       <c r="K154" s="3"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
       <c r="E155" s="12"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="13"/>
-      <c r="J155" s="13"/>
-      <c r="K155" s="14"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="8"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
-      <c r="I156" s="16"/>
-      <c r="J156" s="16"/>
-      <c r="K156" s="17"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="11"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+      <c r="A157" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B157" s="24"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24"/>
-      <c r="H157" s="24"/>
-      <c r="I157" s="24"/>
-      <c r="J157" s="24"/>
-      <c r="K157" s="24"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="24"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
-      <c r="I158" s="24"/>
-      <c r="J158" s="24"/>
-      <c r="K158" s="24"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="24"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="24"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="24"/>
-      <c r="K159" s="24"/>
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="19">
+      <c r="A160" s="4">
         <v>41</v>
       </c>
-      <c r="B160" s="19">
+      <c r="B160" s="4">
         <v>24</v>
       </c>
-      <c r="C160" s="20">
+      <c r="C160" s="13">
         <v>43990</v>
       </c>
-      <c r="D160" s="20">
+      <c r="D160" s="13">
         <v>43996</v>
       </c>
-      <c r="E160" s="19" t="s">
+      <c r="E160" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="19"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="19"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="20"/>
-      <c r="D162" s="20"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="19"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="19"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="20"/>
-      <c r="D164" s="20"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
@@ -3077,128 +3071,128 @@
       <c r="K165" s="3"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="19" t="s">
+      <c r="A166" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B166" s="19" t="s">
+      <c r="B166" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C166" s="19" t="s">
+      <c r="C166" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="19" t="s">
+      <c r="D166" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E166" s="19" t="s">
+      <c r="E166" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="19"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="19"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="19"/>
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="19">
+      <c r="A169" s="4">
         <v>42</v>
       </c>
-      <c r="B169" s="19">
+      <c r="B169" s="4">
         <v>25</v>
       </c>
-      <c r="C169" s="20">
+      <c r="C169" s="13">
         <v>43997</v>
       </c>
-      <c r="D169" s="20">
+      <c r="D169" s="13">
         <v>44003</v>
       </c>
-      <c r="E169" s="19" t="s">
+      <c r="E169" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="19"/>
-      <c r="K169" s="19"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="19"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="19"/>
-      <c r="K170" s="19"/>
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="19"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
-      <c r="K171" s="19"/>
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="19"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
-      <c r="K172" s="19"/>
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="19"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="19"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
@@ -3240,79 +3234,79 @@
       <c r="K176" s="3"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="19">
+      <c r="A177" s="4">
         <v>43</v>
       </c>
-      <c r="B177" s="19">
+      <c r="B177" s="4">
         <v>26</v>
       </c>
-      <c r="C177" s="20">
+      <c r="C177" s="13">
         <v>44004</v>
       </c>
-      <c r="D177" s="20">
+      <c r="D177" s="13">
         <v>44010</v>
       </c>
-      <c r="E177" s="19" t="s">
+      <c r="E177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="19"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="19"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="20"/>
-      <c r="D179" s="20"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="19"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="19"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="19"/>
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="19"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="20"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="19"/>
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
@@ -3354,46 +3348,46 @@
       <c r="K184" s="3"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="6">
+      <c r="A185" s="15">
         <v>44</v>
       </c>
-      <c r="B185" s="6">
+      <c r="B185" s="15">
         <v>27</v>
       </c>
-      <c r="C185" s="9">
+      <c r="C185" s="18">
         <v>44011</v>
       </c>
-      <c r="D185" s="9">
+      <c r="D185" s="18">
         <v>44017</v>
       </c>
       <c r="E185" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F185" s="13"/>
-      <c r="G185" s="13"/>
-      <c r="H185" s="13"/>
-      <c r="I185" s="13"/>
-      <c r="J185" s="13"/>
-      <c r="K185" s="14"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="8"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="16"/>
-      <c r="H186" s="16"/>
-      <c r="I186" s="16"/>
-      <c r="J186" s="16"/>
-      <c r="K186" s="17"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+      <c r="K186" s="11"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -3403,146 +3397,146 @@
       <c r="K187" s="3"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
+      <c r="A188" s="16"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
       <c r="E188" s="12"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="13"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="14"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="8"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="16"/>
-      <c r="G189" s="16"/>
-      <c r="H189" s="16"/>
-      <c r="I189" s="16"/>
-      <c r="J189" s="16"/>
-      <c r="K189" s="17"/>
+      <c r="A189" s="17"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="11"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="24" t="s">
+      <c r="A190" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B190" s="24"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="24"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="24"/>
-      <c r="G190" s="24"/>
-      <c r="H190" s="24"/>
-      <c r="I190" s="24"/>
-      <c r="J190" s="24"/>
-      <c r="K190" s="24"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="24"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="24"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="24"/>
-      <c r="H191" s="24"/>
-      <c r="I191" s="24"/>
-      <c r="J191" s="24"/>
-      <c r="K191" s="24"/>
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="24"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="24"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="24"/>
-      <c r="G192" s="24"/>
-      <c r="H192" s="24"/>
-      <c r="I192" s="24"/>
-      <c r="J192" s="24"/>
-      <c r="K192" s="24"/>
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="19">
+      <c r="A193" s="4">
         <v>45</v>
       </c>
-      <c r="B193" s="19">
+      <c r="B193" s="4">
         <v>28</v>
       </c>
-      <c r="C193" s="20">
+      <c r="C193" s="13">
         <v>44018</v>
       </c>
-      <c r="D193" s="20">
+      <c r="D193" s="13">
         <v>44024</v>
       </c>
-      <c r="E193" s="19" t="s">
+      <c r="E193" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="19"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="20"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="19"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="20"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="19"/>
-      <c r="K195" s="19"/>
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="19"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="20"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="19"/>
-      <c r="K196" s="19"/>
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="19"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="20"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="19"/>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="19"/>
-      <c r="K197" s="19"/>
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
@@ -3558,128 +3552,128 @@
       <c r="K198" s="3"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="19" t="s">
+      <c r="A199" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B199" s="19" t="s">
+      <c r="B199" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C199" s="19" t="s">
+      <c r="C199" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D199" s="19" t="s">
+      <c r="D199" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E199" s="19" t="s">
+      <c r="E199" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="19"/>
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="19"/>
-      <c r="K200" s="19"/>
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="19"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="19"/>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="19"/>
-      <c r="K201" s="19"/>
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="19">
+      <c r="A202" s="4">
         <v>46</v>
       </c>
-      <c r="B202" s="19">
+      <c r="B202" s="4">
         <v>29</v>
       </c>
-      <c r="C202" s="20">
+      <c r="C202" s="13">
         <v>44025</v>
       </c>
-      <c r="D202" s="20">
+      <c r="D202" s="13">
         <v>44031</v>
       </c>
-      <c r="E202" s="19" t="s">
+      <c r="E202" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F202" s="19"/>
-      <c r="G202" s="19"/>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="19"/>
-      <c r="K202" s="19"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="19"/>
-      <c r="B203" s="19"/>
-      <c r="C203" s="20"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="19"/>
-      <c r="K203" s="19"/>
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="19"/>
-      <c r="B204" s="19"/>
-      <c r="C204" s="20"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="19"/>
-      <c r="G204" s="19"/>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="19"/>
-      <c r="K204" s="19"/>
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="19"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="20"/>
-      <c r="D205" s="20"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="19"/>
-      <c r="K205" s="19"/>
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="19"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="20"/>
-      <c r="D206" s="20"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="19"/>
-      <c r="G206" s="19"/>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="19"/>
-      <c r="K206" s="19"/>
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
@@ -3721,79 +3715,79 @@
       <c r="K209" s="3"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="19">
+      <c r="A210" s="4">
         <v>47</v>
       </c>
-      <c r="B210" s="19">
+      <c r="B210" s="4">
         <v>30</v>
       </c>
-      <c r="C210" s="20">
+      <c r="C210" s="13">
         <v>44032</v>
       </c>
-      <c r="D210" s="20">
+      <c r="D210" s="13">
         <v>44038</v>
       </c>
-      <c r="E210" s="19" t="s">
+      <c r="E210" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F210" s="19"/>
-      <c r="G210" s="19"/>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="19"/>
-      <c r="K210" s="19"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="19"/>
-      <c r="B211" s="19"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="20"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="19"/>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="19"/>
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="19"/>
-      <c r="B212" s="19"/>
-      <c r="C212" s="20"/>
-      <c r="D212" s="20"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="19"/>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="19"/>
-      <c r="K212" s="19"/>
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="19"/>
-      <c r="B213" s="19"/>
-      <c r="C213" s="20"/>
-      <c r="D213" s="20"/>
-      <c r="E213" s="19"/>
-      <c r="F213" s="19"/>
-      <c r="G213" s="19"/>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="19"/>
-      <c r="K213" s="19"/>
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="19"/>
-      <c r="B214" s="19"/>
-      <c r="C214" s="20"/>
-      <c r="D214" s="20"/>
-      <c r="E214" s="19"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="19"/>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="19"/>
-      <c r="K214" s="19"/>
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
@@ -3835,46 +3829,46 @@
       <c r="K217" s="3"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="6">
+      <c r="A218" s="15">
         <v>48</v>
       </c>
-      <c r="B218" s="6">
+      <c r="B218" s="15">
         <v>31</v>
       </c>
-      <c r="C218" s="9">
+      <c r="C218" s="18">
         <v>44039</v>
       </c>
-      <c r="D218" s="9">
+      <c r="D218" s="18">
         <v>44045</v>
       </c>
       <c r="E218" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F218" s="13"/>
-      <c r="G218" s="13"/>
-      <c r="H218" s="13"/>
-      <c r="I218" s="13"/>
-      <c r="J218" s="13"/>
-      <c r="K218" s="14"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="8"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="15"/>
-      <c r="F219" s="16"/>
-      <c r="G219" s="16"/>
-      <c r="H219" s="16"/>
-      <c r="I219" s="16"/>
-      <c r="J219" s="16"/>
-      <c r="K219" s="17"/>
+      <c r="A219" s="16"/>
+      <c r="B219" s="16"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+      <c r="K219" s="11"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
+      <c r="A220" s="16"/>
+      <c r="B220" s="16"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -3884,33 +3878,33 @@
       <c r="K220" s="3"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="7"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
+      <c r="A221" s="16"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="19"/>
       <c r="E221" s="12"/>
-      <c r="F221" s="13"/>
-      <c r="G221" s="13"/>
-      <c r="H221" s="13"/>
-      <c r="I221" s="13"/>
-      <c r="J221" s="13"/>
-      <c r="K221" s="14"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="7"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="8"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
-      <c r="E222" s="15"/>
-      <c r="F222" s="16"/>
-      <c r="G222" s="16"/>
-      <c r="H222" s="16"/>
-      <c r="I222" s="16"/>
-      <c r="J222" s="16"/>
-      <c r="K222" s="17"/>
+      <c r="A222" s="17"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+      <c r="K222" s="11"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="24" t="s">
+      <c r="A223" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B223" s="3"/>
@@ -3951,79 +3945,79 @@
       <c r="K225" s="3"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+      <c r="A226" s="4">
         <v>49</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="4">
         <v>32</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226" s="13">
         <v>44046</v>
       </c>
-      <c r="D226" s="4">
+      <c r="D226" s="13">
         <v>44052</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="E226" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="4"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="4"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="4"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
@@ -4039,128 +4033,128 @@
       <c r="K231" s="3"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D232" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E232" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="K232" s="4"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+      <c r="I233" s="4"/>
+      <c r="J233" s="4"/>
+      <c r="K233" s="4"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+      <c r="I234" s="4"/>
+      <c r="J234" s="4"/>
+      <c r="K234" s="4"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+      <c r="A235" s="4">
         <v>50</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="4">
         <v>33</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="13">
         <v>44053</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D235" s="13">
         <v>44059</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="E235" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+      <c r="I235" s="4"/>
+      <c r="J235" s="4"/>
+      <c r="K235" s="4"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
-      <c r="K236" s="3"/>
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="4"/>
+      <c r="J236" s="4"/>
+      <c r="K236" s="4"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="4"/>
+      <c r="J237" s="4"/>
+      <c r="K237" s="4"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="4"/>
+      <c r="J238" s="4"/>
+      <c r="K238" s="4"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+      <c r="I239" s="4"/>
+      <c r="J239" s="4"/>
+      <c r="K239" s="4"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
@@ -4202,79 +4196,79 @@
       <c r="K242" s="3"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+      <c r="A243" s="4">
         <v>51</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="4">
         <v>34</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243" s="13">
         <v>44060</v>
       </c>
-      <c r="D243" s="4">
+      <c r="D243" s="13">
         <v>44066</v>
       </c>
-      <c r="E243" s="5" t="s">
+      <c r="E243" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+      <c r="I243" s="4"/>
+      <c r="J243" s="4"/>
+      <c r="K243" s="4"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="K244" s="4"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
-      <c r="K245" s="3"/>
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="13"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="K246" s="4"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="13"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="4"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
@@ -4316,79 +4310,79 @@
       <c r="K250" s="3"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+      <c r="A251" s="4">
         <v>52</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="4">
         <v>35</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251" s="13">
         <v>44067</v>
       </c>
-      <c r="D251" s="4">
+      <c r="D251" s="13">
         <v>44073</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="E251" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="4"/>
+      <c r="J251" s="4"/>
+      <c r="K251" s="4"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
-      <c r="K252" s="3"/>
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+      <c r="K252" s="4"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="4"/>
+      <c r="K253" s="4"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="4"/>
+      <c r="K254" s="4"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
-      <c r="K255" s="3"/>
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+      <c r="I255" s="4"/>
+      <c r="J255" s="4"/>
+      <c r="K255" s="4"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
@@ -4808,6 +4802,270 @@
     </row>
   </sheetData>
   <mergeCells count="288">
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E1:K3"/>
+    <mergeCell ref="E34:K36"/>
+    <mergeCell ref="E23:K24"/>
+    <mergeCell ref="E28:K29"/>
+    <mergeCell ref="E31:K32"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E53:K54"/>
+    <mergeCell ref="E56:K57"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:K46"/>
+    <mergeCell ref="E48:K49"/>
+    <mergeCell ref="E61:K62"/>
+    <mergeCell ref="E64:K65"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="A83:K85"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="D111:D115"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:K135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="D136:D140"/>
+    <mergeCell ref="E166:K168"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="E147:K148"/>
+    <mergeCell ref="E152:K153"/>
+    <mergeCell ref="E155:K156"/>
+    <mergeCell ref="E146:K146"/>
+    <mergeCell ref="E154:K154"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="B169:B173"/>
+    <mergeCell ref="C169:C173"/>
+    <mergeCell ref="D169:D173"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="B177:B181"/>
+    <mergeCell ref="C177:C181"/>
+    <mergeCell ref="D177:D181"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="D160:D164"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="A185:A189"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="C185:C189"/>
+    <mergeCell ref="D185:D189"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="C193:C197"/>
+    <mergeCell ref="D193:D197"/>
+    <mergeCell ref="E204:K204"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="C210:C214"/>
+    <mergeCell ref="D210:D214"/>
+    <mergeCell ref="A218:A222"/>
+    <mergeCell ref="B218:B222"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="D218:D222"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="B202:B206"/>
+    <mergeCell ref="C202:C206"/>
+    <mergeCell ref="D202:D206"/>
+    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="B226:B230"/>
+    <mergeCell ref="C226:C230"/>
+    <mergeCell ref="D226:D230"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="E232:K234"/>
+    <mergeCell ref="E70:K71"/>
+    <mergeCell ref="E73:K74"/>
+    <mergeCell ref="E78:K79"/>
+    <mergeCell ref="E81:K82"/>
+    <mergeCell ref="E72:K72"/>
+    <mergeCell ref="E80:K80"/>
+    <mergeCell ref="E4:K5"/>
+    <mergeCell ref="E7:K8"/>
+    <mergeCell ref="E12:K13"/>
+    <mergeCell ref="E15:K16"/>
+    <mergeCell ref="E20:K21"/>
+    <mergeCell ref="E67:K69"/>
+    <mergeCell ref="E37:K38"/>
+    <mergeCell ref="E40:K41"/>
+    <mergeCell ref="A9:K11"/>
+    <mergeCell ref="A17:K19"/>
+    <mergeCell ref="A25:K27"/>
+    <mergeCell ref="A42:K44"/>
+    <mergeCell ref="A50:K52"/>
+    <mergeCell ref="A58:K60"/>
+    <mergeCell ref="A75:K77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="E86:K87"/>
+    <mergeCell ref="E89:K90"/>
+    <mergeCell ref="E94:K95"/>
+    <mergeCell ref="E97:K98"/>
+    <mergeCell ref="E103:K104"/>
+    <mergeCell ref="E106:K107"/>
+    <mergeCell ref="A91:K93"/>
+    <mergeCell ref="E88:K88"/>
+    <mergeCell ref="E96:K96"/>
+    <mergeCell ref="E105:K105"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:K102"/>
+    <mergeCell ref="E114:K115"/>
+    <mergeCell ref="E119:K120"/>
+    <mergeCell ref="E122:K123"/>
+    <mergeCell ref="E127:K128"/>
+    <mergeCell ref="E130:K131"/>
+    <mergeCell ref="E238:K239"/>
+    <mergeCell ref="E243:K244"/>
+    <mergeCell ref="E246:K247"/>
+    <mergeCell ref="E210:K211"/>
+    <mergeCell ref="E213:K214"/>
+    <mergeCell ref="E218:K219"/>
+    <mergeCell ref="E221:K222"/>
+    <mergeCell ref="E226:K227"/>
+    <mergeCell ref="E229:K230"/>
+    <mergeCell ref="E220:K220"/>
+    <mergeCell ref="E228:K228"/>
+    <mergeCell ref="E185:K186"/>
+    <mergeCell ref="E188:K189"/>
+    <mergeCell ref="E193:K194"/>
+    <mergeCell ref="E196:K197"/>
+    <mergeCell ref="E202:K203"/>
+    <mergeCell ref="E205:K206"/>
+    <mergeCell ref="E160:K161"/>
+    <mergeCell ref="E199:K201"/>
+    <mergeCell ref="E251:K252"/>
+    <mergeCell ref="E254:K255"/>
+    <mergeCell ref="A248:K250"/>
+    <mergeCell ref="E237:K237"/>
+    <mergeCell ref="E245:K245"/>
+    <mergeCell ref="E253:K253"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="B251:B255"/>
+    <mergeCell ref="C251:C255"/>
+    <mergeCell ref="D251:D255"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="D235:D239"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="C243:C247"/>
+    <mergeCell ref="D243:D247"/>
+    <mergeCell ref="E235:K236"/>
+    <mergeCell ref="E212:K212"/>
+    <mergeCell ref="A108:K110"/>
+    <mergeCell ref="A116:K118"/>
+    <mergeCell ref="A124:K126"/>
+    <mergeCell ref="A141:K143"/>
+    <mergeCell ref="A149:K151"/>
+    <mergeCell ref="A157:K159"/>
+    <mergeCell ref="E113:K113"/>
+    <mergeCell ref="E121:K121"/>
+    <mergeCell ref="E129:K129"/>
+    <mergeCell ref="E138:K138"/>
+    <mergeCell ref="E163:K164"/>
+    <mergeCell ref="E169:K170"/>
+    <mergeCell ref="E172:K173"/>
+    <mergeCell ref="E177:K178"/>
+    <mergeCell ref="E180:K181"/>
+    <mergeCell ref="A174:K176"/>
+    <mergeCell ref="E162:K162"/>
+    <mergeCell ref="E171:K171"/>
+    <mergeCell ref="E179:K179"/>
+    <mergeCell ref="E136:K137"/>
+    <mergeCell ref="E139:K140"/>
+    <mergeCell ref="E144:K145"/>
+    <mergeCell ref="E111:K112"/>
     <mergeCell ref="A256:K264"/>
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="E14:K14"/>
@@ -4832,276 +5090,12 @@
     <mergeCell ref="A240:K242"/>
     <mergeCell ref="E187:K187"/>
     <mergeCell ref="E195:K195"/>
-    <mergeCell ref="E212:K212"/>
-    <mergeCell ref="A108:K110"/>
-    <mergeCell ref="A116:K118"/>
-    <mergeCell ref="A124:K126"/>
-    <mergeCell ref="A141:K143"/>
-    <mergeCell ref="A149:K151"/>
-    <mergeCell ref="A157:K159"/>
-    <mergeCell ref="E113:K113"/>
-    <mergeCell ref="E121:K121"/>
-    <mergeCell ref="E129:K129"/>
-    <mergeCell ref="E138:K138"/>
-    <mergeCell ref="E163:K164"/>
-    <mergeCell ref="E169:K170"/>
-    <mergeCell ref="E172:K173"/>
-    <mergeCell ref="E177:K178"/>
-    <mergeCell ref="E180:K181"/>
-    <mergeCell ref="A174:K176"/>
-    <mergeCell ref="E162:K162"/>
-    <mergeCell ref="E171:K171"/>
-    <mergeCell ref="E179:K179"/>
-    <mergeCell ref="E136:K137"/>
-    <mergeCell ref="E139:K140"/>
-    <mergeCell ref="E144:K145"/>
-    <mergeCell ref="E251:K252"/>
-    <mergeCell ref="E254:K255"/>
-    <mergeCell ref="A248:K250"/>
-    <mergeCell ref="E237:K237"/>
-    <mergeCell ref="E245:K245"/>
-    <mergeCell ref="E253:K253"/>
-    <mergeCell ref="A251:A255"/>
-    <mergeCell ref="B251:B255"/>
-    <mergeCell ref="C251:C255"/>
-    <mergeCell ref="D251:D255"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="C235:C239"/>
-    <mergeCell ref="D235:D239"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="C243:C247"/>
-    <mergeCell ref="D243:D247"/>
-    <mergeCell ref="E235:K236"/>
-    <mergeCell ref="E111:K112"/>
-    <mergeCell ref="E114:K115"/>
-    <mergeCell ref="E119:K120"/>
-    <mergeCell ref="E122:K123"/>
-    <mergeCell ref="E127:K128"/>
-    <mergeCell ref="E130:K131"/>
-    <mergeCell ref="E238:K239"/>
-    <mergeCell ref="E243:K244"/>
-    <mergeCell ref="E246:K247"/>
-    <mergeCell ref="E210:K211"/>
-    <mergeCell ref="E213:K214"/>
-    <mergeCell ref="E218:K219"/>
-    <mergeCell ref="E221:K222"/>
-    <mergeCell ref="E226:K227"/>
-    <mergeCell ref="E229:K230"/>
-    <mergeCell ref="E220:K220"/>
-    <mergeCell ref="E228:K228"/>
-    <mergeCell ref="E185:K186"/>
-    <mergeCell ref="E188:K189"/>
-    <mergeCell ref="E193:K194"/>
-    <mergeCell ref="E196:K197"/>
-    <mergeCell ref="E202:K203"/>
-    <mergeCell ref="E205:K206"/>
-    <mergeCell ref="E160:K161"/>
-    <mergeCell ref="E86:K87"/>
-    <mergeCell ref="E89:K90"/>
-    <mergeCell ref="E94:K95"/>
-    <mergeCell ref="E97:K98"/>
-    <mergeCell ref="E103:K104"/>
-    <mergeCell ref="E106:K107"/>
-    <mergeCell ref="A91:K93"/>
-    <mergeCell ref="E88:K88"/>
-    <mergeCell ref="E96:K96"/>
-    <mergeCell ref="E105:K105"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:K102"/>
-    <mergeCell ref="E70:K71"/>
-    <mergeCell ref="E73:K74"/>
-    <mergeCell ref="E78:K79"/>
-    <mergeCell ref="E81:K82"/>
-    <mergeCell ref="E72:K72"/>
-    <mergeCell ref="E80:K80"/>
-    <mergeCell ref="E4:K5"/>
-    <mergeCell ref="E7:K8"/>
-    <mergeCell ref="E12:K13"/>
-    <mergeCell ref="E15:K16"/>
-    <mergeCell ref="E20:K21"/>
-    <mergeCell ref="E67:K69"/>
-    <mergeCell ref="E37:K38"/>
-    <mergeCell ref="E40:K41"/>
-    <mergeCell ref="A9:K11"/>
-    <mergeCell ref="A17:K19"/>
-    <mergeCell ref="A25:K27"/>
-    <mergeCell ref="A42:K44"/>
-    <mergeCell ref="A50:K52"/>
-    <mergeCell ref="A58:K60"/>
-    <mergeCell ref="A75:K77"/>
-    <mergeCell ref="A226:A230"/>
-    <mergeCell ref="B226:B230"/>
-    <mergeCell ref="C226:C230"/>
-    <mergeCell ref="D226:D230"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="D232:D234"/>
-    <mergeCell ref="E232:K234"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="C210:C214"/>
-    <mergeCell ref="D210:D214"/>
-    <mergeCell ref="A218:A222"/>
-    <mergeCell ref="B218:B222"/>
-    <mergeCell ref="C218:C222"/>
-    <mergeCell ref="D218:D222"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="E199:K201"/>
-    <mergeCell ref="A202:A206"/>
-    <mergeCell ref="B202:B206"/>
-    <mergeCell ref="C202:C206"/>
-    <mergeCell ref="D202:D206"/>
-    <mergeCell ref="A185:A189"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="C185:C189"/>
-    <mergeCell ref="D185:D189"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="C193:C197"/>
-    <mergeCell ref="D193:D197"/>
-    <mergeCell ref="E204:K204"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="B169:B173"/>
-    <mergeCell ref="C169:C173"/>
-    <mergeCell ref="D169:D173"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="B177:B181"/>
-    <mergeCell ref="C177:C181"/>
-    <mergeCell ref="D177:D181"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="C160:C164"/>
-    <mergeCell ref="D160:D164"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="E166:K168"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="B144:B148"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="E147:K148"/>
-    <mergeCell ref="E152:K153"/>
-    <mergeCell ref="E155:K156"/>
-    <mergeCell ref="E146:K146"/>
-    <mergeCell ref="E154:K154"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="E133:K135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="D136:D140"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="D111:D115"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="A83:K85"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="E53:K54"/>
-    <mergeCell ref="E56:K57"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:K46"/>
-    <mergeCell ref="E48:K49"/>
-    <mergeCell ref="E61:K62"/>
-    <mergeCell ref="E64:K65"/>
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="E34:K36"/>
-    <mergeCell ref="E23:K24"/>
-    <mergeCell ref="E28:K29"/>
-    <mergeCell ref="E31:K32"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;18Ausbildungskalender FIAN 19</oddHeader>
+    <oddHeader>&amp;C&amp;16Ausbildungskalender FIAN 19</oddHeader>
     <oddFooter>&amp;R&amp;8Stand Januar 2020</oddFooter>
   </headerFooter>
 </worksheet>
